--- a/docs/I2C_reference.xlsx
+++ b/docs/I2C_reference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info " sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="325">
   <si>
     <t xml:space="preserve">Document Information</t>
   </si>
@@ -595,6 +595,12 @@
     <t xml:space="preserve">uDMA RX I2C stream configuration register.</t>
   </si>
   <si>
+    <t xml:space="preserve">RX_INITCFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xC</t>
+  </si>
+  <si>
     <t xml:space="preserve">TX_SADDR</t>
   </si>
   <si>
@@ -622,6 +628,12 @@
     <t xml:space="preserve">uDMA TX I2C stream configuration register.</t>
   </si>
   <si>
+    <t xml:space="preserve">TX_INITCFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x1C</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMD_SADDR</t>
   </si>
   <si>
@@ -647,6 +659,12 @@
   </si>
   <si>
     <t xml:space="preserve">uDMA CMD I2C stream configuration register.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD_INITCFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x2C</t>
   </si>
   <si>
     <t xml:space="preserve">STATUS</t>
@@ -882,9 +900,6 @@
   </si>
   <si>
     <t xml:space="preserve">I2C_CMD_RPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xC</t>
   </si>
   <si>
     <t xml:space="preserve">The value following the I2C_CMD_RPT command indicates number of times to repeat next command.</t>
@@ -1912,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D1" s="66" t="s">
         <v>9</v>
@@ -1920,50 +1935,50 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3121,12 +3136,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3255,7 +3270,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="s">
         <v>174</v>
       </c>
@@ -3265,28 +3280,20 @@
       <c r="D5" s="57" t="n">
         <v>32</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>166</v>
-      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="54" t="s">
-        <v>176</v>
-      </c>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>177</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>178</v>
       </c>
       <c r="D6" s="57" t="n">
         <v>32</v>
@@ -3304,15 +3311,15 @@
         <v>164</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>180</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>181</v>
       </c>
       <c r="D7" s="57" t="n">
         <v>32</v>
@@ -3330,15 +3337,15 @@
         <v>164</v>
       </c>
       <c r="I7" s="54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="57" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>183</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>184</v>
       </c>
       <c r="D8" s="57" t="n">
         <v>32</v>
@@ -3356,41 +3363,33 @@
         <v>164</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>186</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>187</v>
       </c>
       <c r="D9" s="57" t="n">
         <v>32</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>166</v>
-      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>188</v>
-      </c>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D10" s="57" t="n">
         <v>32</v>
@@ -3408,42 +3407,41 @@
         <v>164</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="57" t="n">
         <v>32</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>166</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H11" s="58" t="s">
         <v>164</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="J11" s="58"/>
+        <v>192</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" s="57" t="n">
         <v>32</v>
@@ -3455,13 +3453,84 @@
         <v>166</v>
       </c>
       <c r="G12" s="58" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="H12" s="58" t="s">
         <v>164</v>
       </c>
       <c r="I12" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="57" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>199</v>
+      </c>
+      <c r="D14" s="57" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="57" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3509,13 +3578,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>79</v>
@@ -3556,7 +3625,7 @@
         <v>164</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,12 +3651,12 @@
         <v>164</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="60" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>171</v>
@@ -3608,12 +3677,12 @@
         <v>164</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="60" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B5" s="58" t="s">
         <v>171</v>
@@ -3634,12 +3703,12 @@
         <v>164</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="60" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>171</v>
@@ -3651,21 +3720,21 @@
         <v>1</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>164</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>171</v>
@@ -3677,24 +3746,24 @@
         <v>1</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G7" s="61" t="s">
         <v>164</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" s="52" t="n">
         <v>0</v>
@@ -3712,15 +3781,15 @@
         <v>164</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C9" s="52" t="n">
         <v>0</v>
@@ -3738,15 +3807,15 @@
         <v>164</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="60" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C10" s="52" t="n">
         <v>0</v>
@@ -3764,15 +3833,15 @@
         <v>164</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="60" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="52" t="n">
         <v>4</v>
@@ -3790,15 +3859,15 @@
         <v>164</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="60" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C12" s="52" t="n">
         <v>5</v>
@@ -3807,24 +3876,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>164</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="52" t="n">
         <v>6</v>
@@ -3833,24 +3902,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>164</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="60" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C14" s="52" t="n">
         <v>0</v>
@@ -3868,15 +3937,15 @@
         <v>164</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="60" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C15" s="52" t="n">
         <v>0</v>
@@ -3894,15 +3963,15 @@
         <v>164</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="60" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C16" s="52" t="n">
         <v>0</v>
@@ -3920,15 +3989,15 @@
         <v>164</v>
       </c>
       <c r="H16" s="62" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="60" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C17" s="52" t="n">
         <v>4</v>
@@ -3946,15 +4015,15 @@
         <v>164</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="60" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C18" s="52" t="n">
         <v>5</v>
@@ -3963,24 +4032,24 @@
         <v>1</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>164</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C19" s="52" t="n">
         <v>6</v>
@@ -3989,24 +4058,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G19" s="61" t="s">
         <v>164</v>
       </c>
       <c r="H19" s="62" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C20" s="52" t="n">
         <v>0</v>
@@ -4018,21 +4087,21 @@
         <v>166</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>164</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="60" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C21" s="52" t="n">
         <v>1</v>
@@ -4044,21 +4113,21 @@
         <v>166</v>
       </c>
       <c r="F21" s="58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>164</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="60" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C22" s="52" t="n">
         <v>0</v>
@@ -4070,13 +4139,13 @@
         <v>166</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>164</v>
       </c>
       <c r="H22" s="62" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,19 +4204,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="66" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>11</v>
@@ -4155,7 +4224,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B2" s="52" t="n">
         <v>32</v>
@@ -4164,26 +4233,26 @@
         <v>164</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B3" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B4" s="52" t="n">
         <v>32</v>
@@ -4192,26 +4261,26 @@
         <v>169</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B5" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B6" s="52" t="n">
         <v>32</v>
@@ -4220,167 +4289,167 @@
         <v>172</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B7" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B8" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B9" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B10" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B11" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B12" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B13" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B14" s="52" t="n">
         <v>32</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4401,8 +4470,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4418,10 +4487,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>105</v>
@@ -4430,7 +4499,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F1" s="55" t="s">
         <v>11</v>
@@ -4438,10 +4507,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>28</v>
@@ -4453,15 +4522,15 @@
         <v>164</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>28</v>
@@ -4470,18 +4539,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>28</v>
@@ -4493,15 +4562,15 @@
         <v>169</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>28</v>
@@ -4510,18 +4579,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -4533,15 +4602,15 @@
         <v>172</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -4550,18 +4619,18 @@
         <v>4</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -4570,18 +4639,18 @@
         <v>16</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -4590,18 +4659,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -4610,18 +4679,18 @@
         <v>16</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>28</v>
@@ -4630,18 +4699,18 @@
         <v>4</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -4650,18 +4719,18 @@
         <v>16</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -4670,18 +4739,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C14" s="34" t="n">
         <v>28</v>
@@ -4690,18 +4759,18 @@
         <v>4</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C15" s="34" t="n">
         <v>0</v>
@@ -4710,18 +4779,18 @@
         <v>8</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C16" s="34" t="n">
         <v>28</v>
@@ -4730,18 +4799,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C17" s="34" t="n">
         <v>28</v>
@@ -4750,18 +4819,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C18" s="34" t="n">
         <v>27</v>
@@ -4770,18 +4839,18 @@
         <v>1</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C19" s="34" t="n">
         <v>0</v>
@@ -4790,18 +4859,18 @@
         <v>24</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C20" s="34" t="n">
         <v>28</v>
@@ -4810,18 +4879,18 @@
         <v>4</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C21" s="34" t="n">
         <v>27</v>
@@ -4830,18 +4899,18 @@
         <v>1</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C22" s="34" t="n">
         <v>0</v>
@@ -4850,10 +4919,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
